--- a/cigaratte_data.xlsx
+++ b/cigaratte_data.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="卷烟产品资料" sheetId="1" r:id="rId1"/>
+    <sheet name="production_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,175 +56,175 @@
     <t>双喜</t>
   </si>
   <si>
+    <t>硬经典1906</t>
+  </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>经典复刻款硬盒包装，10mg焦油含量带来醇厚口感，18元亲民定价，适合日常口粮消费</t>
+  </si>
+  <si>
+    <t>软经典1906</t>
+  </si>
+  <si>
+    <t>传统软盒设计，保留1906年经典配方，口感细腻顺滑，17元高性价比选择</t>
+  </si>
+  <si>
+    <t>硬经典</t>
+  </si>
+  <si>
+    <t>双喜标志性产品，11mg焦油含量确保浓郁香气，硬盒包装便于携带，15元大众消费首选</t>
+  </si>
+  <si>
+    <t>软经典</t>
+  </si>
+  <si>
+    <t>广东地区畅销款，软盒设计手感舒适，10mg焦油平衡口感与健康，13.5元经济实惠</t>
+  </si>
+  <si>
+    <t>盛世</t>
+  </si>
+  <si>
+    <t>低焦高端产品，6mg焦油含量适合健康意识较强的消费者，19元定位中高端市场</t>
+  </si>
+  <si>
+    <t>经典工坊</t>
+  </si>
+  <si>
+    <t>匠心工艺打造，10mg焦油保证口感品质，20元定价面向追求品质的消费群体</t>
+  </si>
+  <si>
+    <t>硬世纪经典</t>
+  </si>
+  <si>
+    <t>世纪系列高端款，硬盒包装彰显品质，10mg焦油含量，22元商务场合优选</t>
+  </si>
+  <si>
+    <t>硬蓝红玫王</t>
+  </si>
+  <si>
+    <t>蓝莓与玫瑰香气融合，8mg低焦油设计，16元年轻消费群体喜爱</t>
+  </si>
+  <si>
+    <t>软蓝红玫王</t>
+  </si>
+  <si>
+    <t>果香四溢的软盒产品，8mg焦油含量，13元高性价比的特色口味选择</t>
+  </si>
+  <si>
+    <t>硬红五叶神</t>
+  </si>
+  <si>
+    <t>五叶神系列经典款，11mg焦油带来浓郁草本香气，20元兼顾口感与健康</t>
+  </si>
+  <si>
+    <t>软红五叶神</t>
+  </si>
+  <si>
+    <t>五叶神高端产品，11mg焦油含量保留醇厚口感，30元定位高端礼品市场</t>
+  </si>
+  <si>
+    <t>硬金五叶神</t>
+  </si>
+  <si>
+    <t>金色硬盒包装显档次，11mg焦油含量，15元大众消费的品质之选</t>
+  </si>
+  <si>
+    <t>五叶神金尊</t>
+  </si>
+  <si>
+    <t>五叶神尊贵系列，10mg焦油平衡口感，23元商务接待优选</t>
+  </si>
+  <si>
     <t>红双喜</t>
   </si>
   <si>
+    <t>龙凤紫</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>香港经典品牌，紫色包装彰显尊贵，11mg焦油含量带来港式醇香，15元跨境特色产品</t>
+  </si>
+  <si>
     <t>玉溪</t>
   </si>
   <si>
+    <t>硬和谐</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>玉溪高端系列，35元定位商务市场，10mg焦油带来云南烟叶的清香醇厚</t>
+  </si>
+  <si>
+    <t>细支</t>
+  </si>
+  <si>
+    <t>时尚细支设计，8mg低焦油含量，30元满足年轻消费者的健康需求</t>
+  </si>
+  <si>
+    <t>细支缤果爆</t>
+  </si>
+  <si>
+    <t>果味爆珠设计，7mg超低焦油，35元潮流年轻群体的特色选择</t>
+  </si>
+  <si>
+    <t>硬</t>
+  </si>
+  <si>
+    <t>玉溪经典硬盒款，10mg焦油保留云南烟的独特香气，22元大众品质之选</t>
+  </si>
+  <si>
+    <t>软</t>
+  </si>
+  <si>
+    <t>传统软盒玉溪，11mg焦油含量带来浓郁口感，23元经典畅销产品</t>
+  </si>
+  <si>
     <t>牡丹</t>
   </si>
   <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>上海经典品牌，软盒设计怀旧风格，10mg焦油含量，22元兼具经典与品质</t>
+  </si>
+  <si>
     <t>娇子</t>
   </si>
   <si>
+    <t>宽窄好运</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>宽窄系列特色产品，10mg焦油含量，28元川烟风味的品质选择</t>
+  </si>
+  <si>
+    <t>宽窄好运细支</t>
+  </si>
+  <si>
+    <t>细支宽窄设计，8mg低焦油，24元适合女性及健康意识较强的消费者</t>
+  </si>
+  <si>
     <t>天子</t>
   </si>
   <si>
-    <t>硬经典1906</t>
-  </si>
-  <si>
-    <t>软经典1906</t>
-  </si>
-  <si>
-    <t>硬经典</t>
-  </si>
-  <si>
-    <t>软经典</t>
-  </si>
-  <si>
-    <t>盛世</t>
-  </si>
-  <si>
-    <t>经典工坊</t>
-  </si>
-  <si>
-    <t>硬世纪经典</t>
-  </si>
-  <si>
-    <t>硬蓝红玫王</t>
-  </si>
-  <si>
-    <t>软蓝红玫王</t>
-  </si>
-  <si>
-    <t>硬红五叶神</t>
-  </si>
-  <si>
-    <t>软红五叶神</t>
-  </si>
-  <si>
-    <t>硬金五叶神</t>
-  </si>
-  <si>
-    <t>五叶神金尊</t>
-  </si>
-  <si>
-    <t>龙凤紫</t>
-  </si>
-  <si>
-    <t>硬和谐</t>
-  </si>
-  <si>
-    <t>细支</t>
-  </si>
-  <si>
-    <t>细支缤果爆</t>
-  </si>
-  <si>
-    <t>硬</t>
-  </si>
-  <si>
-    <t>软</t>
-  </si>
-  <si>
-    <t>宽窄好运</t>
-  </si>
-  <si>
-    <t>宽窄好运细支</t>
-  </si>
-  <si>
     <t>金</t>
   </si>
   <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>天子系列基础款，金色包装显档次，11mg焦油含量，20元重庆烟的经典代表</t>
+  </si>
+  <si>
     <t>硬珍品龙凤呈祥</t>
-  </si>
-  <si>
-    <t>广东</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>云南</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>四川</t>
-  </si>
-  <si>
-    <t>重庆</t>
-  </si>
-  <si>
-    <t>经典复刻款硬盒包装，10mg焦油含量带来醇厚口感，18元亲民定价，适合日常口粮消费</t>
-  </si>
-  <si>
-    <t>传统软盒设计，保留1906年经典配方，口感细腻顺滑，17元高性价比选择</t>
-  </si>
-  <si>
-    <t>双喜标志性产品，11mg焦油含量确保浓郁香气，硬盒包装便于携带，15元大众消费首选</t>
-  </si>
-  <si>
-    <t>广东地区畅销款，软盒设计手感舒适，10mg焦油平衡口感与健康，13.5元经济实惠</t>
-  </si>
-  <si>
-    <t>低焦高端产品，6mg焦油含量适合健康意识较强的消费者，19元定位中高端市场</t>
-  </si>
-  <si>
-    <t>匠心工艺打造，10mg焦油保证口感品质，20元定价面向追求品质的消费群体</t>
-  </si>
-  <si>
-    <t>世纪系列高端款，硬盒包装彰显品质，10mg焦油含量，22元商务场合优选</t>
-  </si>
-  <si>
-    <t>蓝莓与玫瑰香气融合，8mg低焦油设计，16元年轻消费群体喜爱</t>
-  </si>
-  <si>
-    <t>果香四溢的软盒产品，8mg焦油含量，13元高性价比的特色口味选择</t>
-  </si>
-  <si>
-    <t>五叶神系列经典款，11mg焦油带来浓郁草本香气，20元兼顾口感与健康</t>
-  </si>
-  <si>
-    <t>五叶神高端产品，11mg焦油含量保留醇厚口感，30元定位高端礼品市场</t>
-  </si>
-  <si>
-    <t>金色硬盒包装显档次，11mg焦油含量，15元大众消费的品质之选</t>
-  </si>
-  <si>
-    <t>五叶神尊贵系列，10mg焦油平衡口感，23元商务接待优选</t>
-  </si>
-  <si>
-    <t>香港经典品牌，紫色包装彰显尊贵，11mg焦油含量带来港式醇香，15元跨境特色产品</t>
-  </si>
-  <si>
-    <t>玉溪高端系列，35元定位商务市场，10mg焦油带来云南烟叶的清香醇厚</t>
-  </si>
-  <si>
-    <t>时尚细支设计，8mg低焦油含量，30元满足年轻消费者的健康需求</t>
-  </si>
-  <si>
-    <t>果味爆珠设计，7mg超低焦油，35元潮流年轻群体的特色选择</t>
-  </si>
-  <si>
-    <t>玉溪经典硬盒款，10mg焦油保留云南烟的独特香气，22元大众品质之选</t>
-  </si>
-  <si>
-    <t>传统软盒玉溪，11mg焦油含量带来浓郁口感，23元经典畅销产品</t>
-  </si>
-  <si>
-    <t>上海经典品牌，软盒设计怀旧风格，10mg焦油含量，22元兼具经典与品质</t>
-  </si>
-  <si>
-    <t>宽窄系列特色产品，10mg焦油含量，28元川烟风味的品质选择</t>
-  </si>
-  <si>
-    <t>细支宽窄设计，8mg低焦油，24元适合女性及健康意识较强的消费者</t>
-  </si>
-  <si>
-    <t>天子系列基础款，金色包装显档次，11mg焦油含量，20元重庆烟的经典代表</t>
   </si>
   <si>
     <t>龙凤图案彰显吉祥，11mg焦油含量，21元节庆礼品的优选产品</t>
@@ -220,33 +233,376 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -269,9 +625,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -279,11 +877,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -566,17 +1216,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -609,10 +1261,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -627,7 +1279,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -635,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -653,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -661,10 +1313,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -679,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -687,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>13.5</v>
@@ -705,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -716,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>19</v>
@@ -731,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -739,10 +1391,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -757,7 +1409,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -765,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>22</v>
@@ -783,7 +1435,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -791,10 +1443,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>16</v>
@@ -809,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -817,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -835,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -843,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -861,7 +1513,7 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -869,10 +1521,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>30</v>
@@ -887,7 +1539,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -895,10 +1547,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>15</v>
@@ -913,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -921,10 +1573,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>23</v>
@@ -939,15 +1591,15 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -965,18 +1617,18 @@
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>35</v>
@@ -991,18 +1643,18 @@
         <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>30</v>
@@ -1017,18 +1669,18 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>35</v>
@@ -1043,18 +1695,18 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>22</v>
@@ -1069,18 +1721,18 @@
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>23</v>
@@ -1095,18 +1747,18 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>22</v>
@@ -1121,18 +1773,18 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>28</v>
@@ -1147,18 +1799,18 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>24</v>
@@ -1173,18 +1825,18 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>20</v>
@@ -1199,18 +1851,18 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>21</v>
@@ -1230,5 +1882,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>